--- a/CashFlow/HAL_cashflow.xlsx
+++ b/CashFlow/HAL_cashflow.xlsx
@@ -75,7 +75,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -768,19 +768,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>7673000000.0</v>
+        <v>2768000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10894000000.0</v>
+        <v>340000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>8723000000.0</v>
+        <v>293000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6110000000.0</v>
+        <v>106000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>3254000000.0</v>
+        <v>-45000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-202000000.0</v>
@@ -1022,19 +1022,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-979000000.0</v>
+        <v>6598000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-934000000.0</v>
+        <v>7469000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-898000000.0</v>
+        <v>5931000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-782000000.0</v>
+        <v>4310000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>143000000.0</v>
+        <v>2533000000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
